--- a/アカウント一覧テストケース.xlsx
+++ b/アカウント一覧テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39AC5FC-E0A1-40E7-A1CD-668D8ABAD52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{015FBED3-214F-43F9-B0D1-F777FC7C7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -160,20 +160,22 @@
     <t>遷移先（delete.php）は未作成のため、404エラーが表示されるが、URLとGETパラメータは正しく渡っていることを確認済み。</t>
   </si>
   <si>
-    <t>DB接続失敗時の挙動</t>
-  </si>
-  <si>
-    <t>1.XAMPPのMySQLを停止する 2.list.phpにアクセスする</t>
-  </si>
-  <si>
-    <t>「DB接続エラー: ～」と表示され、処理が終了する</t>
+    <t>一覧画面の表示項目確認</t>
+  </si>
+  <si>
+    <t>１.一覧画面表示</t>
+  </si>
+  <si>
+    <t>項目定義通りの順番・ラベルで表示されている</t>
   </si>
   <si>
     <t>×</t>
   </si>
   <si>
-    <t>「DB接続エラー: ～」と表示され、
-処理が終了したがMySQLが起動しなくなってしまった</t>
+    <t>削除・更新が独立して
+「操作」というラベルで
+まとめられてなかった
+ため、修正。</t>
   </si>
   <si>
     <t>単体テストでも
@@ -191,15 +193,6 @@
   <si>
     <t xml:space="preserve">index.html に遷移する
 </t>
-  </si>
-  <si>
-    <t>一覧画面の表示項目確認</t>
-  </si>
-  <si>
-    <t>１.一覧画面表示</t>
-  </si>
-  <si>
-    <t>項目定義通りの順番・ラベルで表示されている</t>
   </si>
   <si>
     <t>ブラウザの戻る操作</t>
@@ -811,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1089,7 +1082,7 @@
     </row>
     <row r="10" spans="1:9" ht="123.75" customHeight="1">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>39</v>
@@ -1107,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="24">
-        <v>45893</v>
+        <v>45897</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>43</v>
@@ -1168,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF67365-6DFC-45F4-A29C-E72EFFA58438}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1333,13 +1326,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -1362,13 +1355,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>12</v>
